--- a/src/main/resources/65-microservice_arch_springcloud/bookstore-microservices-domain-payment_structure.xlsx
+++ b/src/main/resources/65-microservice_arch_springcloud/bookstore-microservices-domain-payment_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="178">
   <si>
     <t>类名</t>
   </si>
@@ -373,10 +373,13 @@
     <t>com.github.fenixsoft.bookstore.paymnet.domain.validation.SettlementValidator</t>
   </si>
   <si>
-    <t>isValid(javax.validation.ConstraintValidatorContext)</t>
+    <t>isValid(java.lang.Object,javax.validation.ConstraintValidatorContext)</t>
   </si>
   <si>
     <t>lambda$isValid$0(com.github.fenixsoft.bookstore.dto.Item)</t>
+  </si>
+  <si>
+    <t>isValid(com.github.fenixsoft.bookstore.dto.Settlement,javax.validation.ConstraintValidatorContext)</t>
   </si>
   <si>
     <t>com.github.fenixsoft.bookstore.paymnet.domain.validation.SufficientStock</t>
@@ -3672,7 +3675,7 @@
         <v>116</v>
       </c>
       <c r="B220" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -3711,7 +3714,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -3725,7 +3728,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
@@ -3739,10 +3742,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B225" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -3753,7 +3756,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B226" t="s">
         <v>12</v>
@@ -3767,24 +3770,24 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B227" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B228" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -3795,7 +3798,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B229" t="s">
         <v>17</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B230" t="s">
         <v>21</v>
@@ -3823,7 +3826,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B231" t="s">
         <v>22</v>
@@ -3837,7 +3840,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B232" t="s">
         <v>24</v>
@@ -3851,7 +3854,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -3865,7 +3868,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B234" t="s">
         <v>15</v>
@@ -3879,21 +3882,21 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B235" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B237" t="s">
         <v>19</v>
@@ -3952,7 +3955,7 @@
         <v>94</v>
       </c>
       <c r="B240" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -3980,7 +3983,7 @@
         <v>94</v>
       </c>
       <c r="B242" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -4092,7 +4095,7 @@
         <v>94</v>
       </c>
       <c r="B250" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -4106,7 +4109,7 @@
         <v>94</v>
       </c>
       <c r="B251" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
@@ -4175,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -4189,7 +4192,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -4203,7 +4206,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -4217,7 +4220,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -4231,7 +4234,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
@@ -4245,7 +4248,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -4259,7 +4262,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -4273,7 +4276,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -4287,7 +4290,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -4301,7 +4304,7 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -4315,7 +4318,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -4329,7 +4332,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -4343,7 +4346,7 @@
         <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -4357,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -4371,7 +4374,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -4385,7 +4388,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -4399,7 +4402,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -4413,7 +4416,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -4427,7 +4430,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -4441,7 +4444,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4455,7 +4458,7 @@
         <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -4469,13 +4472,13 @@
         <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -4483,7 +4486,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -4497,7 +4500,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -4511,7 +4514,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -4525,7 +4528,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -4539,7 +4542,7 @@
         <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -4553,7 +4556,7 @@
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
         <v>78</v>
@@ -4567,7 +4570,7 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
         <v>78</v>
@@ -4581,7 +4584,7 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -4595,7 +4598,7 @@
         <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -4609,7 +4612,7 @@
         <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -4633,13 +4636,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4652,7 +4655,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4660,19 +4663,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -4689,7 +4692,7 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
@@ -4706,7 +4709,7 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
@@ -4723,7 +4726,7 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -4740,7 +4743,7 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -4757,7 +4760,7 @@
         <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -4774,7 +4777,7 @@
         <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -4791,7 +4794,7 @@
         <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -4808,7 +4811,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -4825,7 +4828,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -4842,7 +4845,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
@@ -4859,7 +4862,7 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
@@ -4876,7 +4879,7 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
@@ -4893,7 +4896,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -4910,7 +4913,7 @@
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -4927,7 +4930,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -4944,7 +4947,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -4961,7 +4964,7 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -4978,7 +4981,7 @@
         <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -4995,7 +4998,7 @@
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
@@ -5012,7 +5015,7 @@
         <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -5029,7 +5032,7 @@
         <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -5046,7 +5049,7 @@
         <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24">
@@ -5063,7 +5066,7 @@
         <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
@@ -5080,7 +5083,7 @@
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
@@ -5097,7 +5100,7 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27">
@@ -5114,7 +5117,7 @@
         <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
@@ -5131,7 +5134,7 @@
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29">
@@ -5148,7 +5151,7 @@
         <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30">
@@ -5165,7 +5168,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31">
@@ -5182,7 +5185,7 @@
         <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
@@ -5199,7 +5202,7 @@
         <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
@@ -5216,7 +5219,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -5230,10 +5233,10 @@
         <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
@@ -5247,10 +5250,10 @@
         <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36">
@@ -5267,7 +5270,7 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
@@ -5284,7 +5287,7 @@
         <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -5301,7 +5304,7 @@
         <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39">
@@ -5318,7 +5321,7 @@
         <v>64</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -5335,7 +5338,7 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
@@ -5352,7 +5355,7 @@
         <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42">
@@ -5369,7 +5372,7 @@
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
@@ -5386,7 +5389,7 @@
         <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44">
@@ -5403,7 +5406,7 @@
         <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45">
@@ -5420,7 +5423,7 @@
         <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
@@ -5437,7 +5440,7 @@
         <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47">
@@ -5454,7 +5457,7 @@
         <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48">
@@ -5462,16 +5465,33 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
         <v>118</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>103</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>109</v>
       </c>
-      <c r="E48" t="s">
-        <v>168</v>
+      <c r="E49" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5489,19 +5509,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5519,19 +5539,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5549,19 +5569,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
-        <v>174</v>
-      </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5579,19 +5599,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -5605,10 +5625,10 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
@@ -5622,10 +5642,10 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
@@ -5639,10 +5659,10 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -5656,10 +5676,10 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -5673,10 +5693,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -5690,10 +5710,10 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -5707,10 +5727,10 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
@@ -5724,10 +5744,10 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -5741,10 +5761,10 @@
         <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -5758,10 +5778,10 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5779,19 +5799,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
